--- a/Code/Results/Cases/Case_2_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_142/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9631288577199264</v>
+        <v>1.025178707422301</v>
       </c>
       <c r="D2">
-        <v>0.9889650088659996</v>
+        <v>1.028335994001733</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9379152084672305</v>
+        <v>1.023673710081207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030920756977718</v>
+        <v>1.029360113836184</v>
       </c>
       <c r="J2">
-        <v>0.986471226112339</v>
+        <v>1.030349178630393</v>
       </c>
       <c r="K2">
-        <v>1.000580249934072</v>
+        <v>1.031153107958656</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9503130488876766</v>
+        <v>1.026504455809386</v>
       </c>
       <c r="N2">
-        <v>0.9878721284032496</v>
+        <v>1.031812392646755</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9745087215618604</v>
+        <v>1.027084911950532</v>
       </c>
       <c r="D3">
-        <v>0.9974264121016657</v>
+        <v>1.029735023772635</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9525459711039281</v>
+        <v>1.026231184010214</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03470322721095</v>
+        <v>1.029839124794931</v>
       </c>
       <c r="J3">
-        <v>0.9957192790012179</v>
+        <v>1.031889672209725</v>
       </c>
       <c r="K3">
-        <v>1.008092328723009</v>
+        <v>1.032358457520224</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9638243358767693</v>
+        <v>1.028864096660109</v>
       </c>
       <c r="N3">
-        <v>0.9971333145879974</v>
+        <v>1.033355073903663</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9814994413680251</v>
+        <v>1.028311923916783</v>
       </c>
       <c r="D4">
-        <v>1.002626160926061</v>
+        <v>1.030634761780702</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.961519207419148</v>
+        <v>1.027878643086032</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037005565772719</v>
+        <v>1.03014485212729</v>
       </c>
       <c r="J4">
-        <v>1.001388532210777</v>
+        <v>1.032879920949726</v>
       </c>
       <c r="K4">
-        <v>1.012692993499647</v>
+        <v>1.033132370767463</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9721053744609983</v>
+        <v>1.030383320860615</v>
       </c>
       <c r="N4">
-        <v>1.002810618787386</v>
+        <v>1.034346728910458</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9843575216132864</v>
+        <v>1.028826251928956</v>
       </c>
       <c r="D5">
-        <v>1.004752204377268</v>
+        <v>1.031011710469309</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998344013</v>
       </c>
       <c r="F5">
-        <v>0.9651853130942911</v>
+        <v>1.028569510991789</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037941652736233</v>
+        <v>1.030272378200705</v>
       </c>
       <c r="J5">
-        <v>1.003703475824105</v>
+        <v>1.033294679312714</v>
       </c>
       <c r="K5">
-        <v>1.014570441171948</v>
+        <v>1.033456301753261</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600051301</v>
       </c>
       <c r="M5">
-        <v>0.9754872306751809</v>
+        <v>1.031020222155952</v>
       </c>
       <c r="N5">
-        <v>1.005128849886173</v>
+        <v>1.034762076277895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9848328871501147</v>
+        <v>1.028912522354763</v>
       </c>
       <c r="D6">
-        <v>1.005105818761347</v>
+        <v>1.031074926151731</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796335</v>
       </c>
       <c r="F6">
-        <v>0.9657949501184887</v>
+        <v>1.028685411022077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038097037027117</v>
+        <v>1.030293731929852</v>
       </c>
       <c r="J6">
-        <v>1.004088335552166</v>
+        <v>1.033364229402389</v>
       </c>
       <c r="K6">
-        <v>1.014882496366537</v>
+        <v>1.033510608404331</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673452</v>
       </c>
       <c r="M6">
-        <v>0.9760495121961084</v>
+        <v>1.031127057541534</v>
       </c>
       <c r="N6">
-        <v>1.005514256159191</v>
+        <v>1.034831725136674</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9815379385841179</v>
+        <v>1.028318802275327</v>
       </c>
       <c r="D7">
-        <v>1.002654797495506</v>
+        <v>1.030639803670416</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978917</v>
       </c>
       <c r="F7">
-        <v>0.9615685971971755</v>
+        <v>1.027887881207598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037018195288059</v>
+        <v>1.030146560059822</v>
       </c>
       <c r="J7">
-        <v>1.001419725020855</v>
+        <v>1.03288546899523</v>
       </c>
       <c r="K7">
-        <v>1.012718295972902</v>
+        <v>1.033136704708876</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459043</v>
       </c>
       <c r="M7">
-        <v>0.9721509406940496</v>
+        <v>1.030391838104518</v>
       </c>
       <c r="N7">
-        <v>1.002841855894832</v>
+        <v>1.034352284834823</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.967057463878286</v>
+        <v>1.025824268609381</v>
       </c>
       <c r="D8">
-        <v>0.991885517283332</v>
+        <v>1.028809960699544</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>0.9429698912447172</v>
+        <v>1.024539580656781</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032231046587963</v>
+        <v>1.029522878507822</v>
       </c>
       <c r="J8">
-        <v>0.9896664138523428</v>
+        <v>1.030871168841028</v>
       </c>
       <c r="K8">
-        <v>1.003176537984159</v>
+        <v>1.031561722531735</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591057</v>
       </c>
       <c r="M8">
-        <v>0.9549821056394829</v>
+        <v>1.027303512180841</v>
       </c>
       <c r="N8">
-        <v>0.9910718536763374</v>
+        <v>1.032335124143358</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9382132543162143</v>
+        <v>1.02137790619225</v>
       </c>
       <c r="D9">
-        <v>0.970465223756671</v>
+        <v>1.025542198134939</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9057358587720181</v>
+        <v>1.018580651290297</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022519298280735</v>
+        <v>1.028391072200908</v>
       </c>
       <c r="J9">
-        <v>0.9661537871776499</v>
+        <v>1.027270306464795</v>
       </c>
       <c r="K9">
-        <v>0.9840563750989277</v>
+        <v>1.028739272303612</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9205689677903764</v>
+        <v>1.02180112033373</v>
       </c>
       <c r="N9">
-        <v>0.9675258363748306</v>
+        <v>1.028729148129526</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9158692350852167</v>
+        <v>1.018377570427305</v>
       </c>
       <c r="D10">
-        <v>0.9539226584198154</v>
+        <v>1.02333311824805</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.8766364599144822</v>
+        <v>1.01456547641604</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014882363610964</v>
+        <v>1.027613853700674</v>
       </c>
       <c r="J10">
-        <v>0.9478698597861337</v>
+        <v>1.024833448134702</v>
       </c>
       <c r="K10">
-        <v>0.9691768604616641</v>
+        <v>1.026824593080095</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.8936582401255933</v>
+        <v>1.01808944770566</v>
       </c>
       <c r="N10">
-        <v>0.9492159437092222</v>
+        <v>1.026288829181093</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.905160816191676</v>
+        <v>1.017069374125172</v>
       </c>
       <c r="D11">
-        <v>0.9460156506429365</v>
+        <v>1.022368988112203</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.8625844503741705</v>
+        <v>1.012816085277426</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011197867246445</v>
+        <v>1.02727178742885</v>
       </c>
       <c r="J11">
-        <v>0.9390903177938393</v>
+        <v>1.023769267090739</v>
       </c>
       <c r="K11">
-        <v>0.962032871534188</v>
+        <v>1.025987370742261</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.8806641798763126</v>
+        <v>1.01647131839756</v>
       </c>
       <c r="N11">
-        <v>0.9404239337602717</v>
+        <v>1.025223136877984</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9009910470031675</v>
+        <v>1.016582055176483</v>
       </c>
       <c r="D12">
-        <v>0.9429409251681197</v>
+        <v>1.022009699670706</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.8570910031195602</v>
+        <v>1.012164602482137</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009759787012907</v>
+        <v>1.027143886159686</v>
       </c>
       <c r="J12">
-        <v>0.935669039281946</v>
+        <v>1.023372596055166</v>
       </c>
       <c r="K12">
-        <v>0.9592494931926858</v>
+        <v>1.025675137305264</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.8755851215952674</v>
+        <v>1.015868572459172</v>
       </c>
       <c r="N12">
-        <v>0.9369977966404651</v>
+        <v>1.024825902524041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9018949234588554</v>
+        <v>1.01668665059078</v>
       </c>
       <c r="D13">
-        <v>0.9436072218444405</v>
+        <v>1.022086821554819</v>
       </c>
       <c r="E13">
-        <v>0.9318723593367008</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.858282904814997</v>
+        <v>1.012304424789296</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010071663560528</v>
+        <v>1.027171359749699</v>
       </c>
       <c r="J13">
-        <v>0.9364107843326367</v>
+        <v>1.023457746645851</v>
       </c>
       <c r="K13">
-        <v>0.9598529065510266</v>
+        <v>1.025742169519102</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964245</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.8766870652339954</v>
+        <v>1.015997941369953</v>
       </c>
       <c r="N13">
-        <v>0.9377405950542075</v>
+        <v>1.024911174038332</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9048203267856032</v>
+        <v>1.017029120911879</v>
       </c>
       <c r="D14">
-        <v>0.945764487617674</v>
+        <v>1.0223393132009</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194315</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.8621363509119414</v>
+        <v>1.012762268146751</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011080503982913</v>
+        <v>1.027261232332471</v>
       </c>
       <c r="J14">
-        <v>0.9388110002851731</v>
+        <v>1.023736506628147</v>
       </c>
       <c r="K14">
-        <v>0.9618056191692148</v>
+        <v>1.025961587121943</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764517</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.8802498614620264</v>
+        <v>1.01642153024829</v>
       </c>
       <c r="N14">
-        <v>0.9401442195887048</v>
+        <v>1.025190329891778</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9065959547758959</v>
+        <v>1.017239941913978</v>
       </c>
       <c r="D15">
-        <v>0.9470744602509142</v>
+        <v>1.022494726068806</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717471</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.8644722462656896</v>
+        <v>1.013044135999735</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01169241186037</v>
+        <v>1.02731649376308</v>
       </c>
       <c r="J15">
-        <v>0.9402675164476816</v>
+        <v>1.023908075062386</v>
       </c>
       <c r="K15">
-        <v>0.9629906635528344</v>
+        <v>1.026096610864291</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767191</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.8824096961624934</v>
+        <v>1.016682290302922</v>
       </c>
       <c r="N15">
-        <v>0.9416028041712285</v>
+        <v>1.025362141972873</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9165552915759845</v>
+        <v>1.018464197455222</v>
       </c>
       <c r="D16">
-        <v>0.954429739914292</v>
+        <v>1.023396942212273</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.8775341656472491</v>
+        <v>1.014681345288508</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015117948321245</v>
+        <v>1.027636438036942</v>
       </c>
       <c r="J16">
-        <v>0.9484319940458555</v>
+        <v>1.024903881718881</v>
       </c>
       <c r="K16">
-        <v>0.9696343222746356</v>
+        <v>1.026879982707317</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.8944884271852661</v>
+        <v>1.018196602193735</v>
       </c>
       <c r="N16">
-        <v>0.949778876264071</v>
+        <v>1.026359362789041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9225036970612257</v>
+        <v>1.019229694893027</v>
       </c>
       <c r="D17">
-        <v>0.9588287445699885</v>
+        <v>1.023960828405204</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.8853056365718864</v>
+        <v>1.015705392043278</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017157924069182</v>
+        <v>1.027835642559039</v>
       </c>
       <c r="J17">
-        <v>0.9533040902905711</v>
+        <v>1.02552609025161</v>
       </c>
       <c r="K17">
-        <v>0.9735993335507166</v>
+        <v>1.027369169468966</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.901675548323444</v>
+        <v>1.019143519449802</v>
       </c>
       <c r="N17">
-        <v>0.9546578914442913</v>
+        <v>1.026982454929254</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9258766468403211</v>
+        <v>1.019675327950894</v>
       </c>
       <c r="D18">
-        <v>0.9613249633794839</v>
+        <v>1.024289003870177</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.8897031554351228</v>
+        <v>1.016301663802155</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018312419910952</v>
+        <v>1.027951302908891</v>
       </c>
       <c r="J18">
-        <v>0.9560652067136308</v>
+        <v>1.02588814740184</v>
       </c>
       <c r="K18">
-        <v>0.9758464304309974</v>
+        <v>1.02765371896383</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9057424562005864</v>
+        <v>1.019694787495635</v>
       </c>
       <c r="N18">
-        <v>0.9574229289693762</v>
+        <v>1.027345026242166</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9270112587004024</v>
+        <v>1.019827131161933</v>
       </c>
       <c r="D19">
-        <v>0.9621649412683844</v>
+        <v>1.024400780278473</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.8911809938209684</v>
+        <v>1.016504802883105</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018700387963675</v>
+        <v>1.027990650189327</v>
       </c>
       <c r="J19">
-        <v>0.956993748024183</v>
+        <v>1.026011453564924</v>
       </c>
       <c r="K19">
-        <v>0.9766021085224563</v>
+        <v>1.027750610663994</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.907109182126817</v>
+        <v>1.019882578747501</v>
       </c>
       <c r="N19">
-        <v>0.9583527889150947</v>
+        <v>1.027468507514145</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9218757121027719</v>
+        <v>1.019147654396246</v>
       </c>
       <c r="D20">
-        <v>0.9583641351429817</v>
+        <v>1.023900404443342</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.8844861787956599</v>
+        <v>1.015595629245854</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016942792115889</v>
+        <v>1.027814324944587</v>
       </c>
       <c r="J20">
-        <v>0.9527898935221449</v>
+        <v>1.025459423040053</v>
       </c>
       <c r="K20">
-        <v>0.9731808626440802</v>
+        <v>1.027316765733882</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.9009176985334871</v>
+        <v>1.019042033480619</v>
       </c>
       <c r="N20">
-        <v>0.9541429644574745</v>
+        <v>1.02691569304261</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9039645414723936</v>
+        <v>1.016928310814271</v>
       </c>
       <c r="D21">
-        <v>0.9451332860354454</v>
+        <v>1.022264993164338</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148885</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.8610097286370818</v>
+        <v>1.012627491576915</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010785470874245</v>
+        <v>1.027234790458929</v>
       </c>
       <c r="J21">
-        <v>0.9381089225549476</v>
+        <v>1.023654457319424</v>
       </c>
       <c r="K21">
-        <v>0.9612344200017994</v>
+        <v>1.025897008879962</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981058</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.8792081876484161</v>
+        <v>1.016296841278972</v>
       </c>
       <c r="N21">
-        <v>0.939441144827573</v>
+        <v>1.025108164063625</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8915607717283266</v>
+        <v>1.015524820880342</v>
       </c>
       <c r="D22">
-        <v>0.9359964981711695</v>
+        <v>1.021229975549505</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.8446176061835945</v>
+        <v>1.010751549384831</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006501578810356</v>
+        <v>1.026865532584655</v>
       </c>
       <c r="J22">
-        <v>0.92792655849463</v>
+        <v>1.022511562788016</v>
       </c>
       <c r="K22">
-        <v>0.952952238013503</v>
+        <v>1.02499709529474</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.8640551265717262</v>
+        <v>1.014560962161011</v>
       </c>
       <c r="N22">
-        <v>0.9292443206423563</v>
+        <v>1.023963646490891</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8982610164439784</v>
+        <v>1.016269618770326</v>
       </c>
       <c r="D23">
-        <v>0.9409291845853556</v>
+        <v>1.021779309208606</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.853487256913714</v>
+        <v>1.011746966749919</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008817342916108</v>
+        <v>1.027061750118132</v>
       </c>
       <c r="J23">
-        <v>0.9334283148848728</v>
+        <v>1.023118206476667</v>
       </c>
       <c r="K23">
-        <v>0.9574267735209602</v>
+        <v>1.025474853396</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.8722535490510563</v>
+        <v>1.015482138693955</v>
       </c>
       <c r="N23">
-        <v>0.9347538901577335</v>
+        <v>1.024571151683162</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.922159767547627</v>
+        <v>1.019184727647765</v>
       </c>
       <c r="D24">
-        <v>0.9585742855328622</v>
+        <v>1.023927709684762</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.8848568711309414</v>
+        <v>1.015645229532068</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017040109438838</v>
+        <v>1.027823959101168</v>
       </c>
       <c r="J24">
-        <v>0.9530224841127164</v>
+        <v>1.025489549759512</v>
       </c>
       <c r="K24">
-        <v>0.9733701527079518</v>
+        <v>1.027340447150182</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.9012605215975154</v>
+        <v>1.019087893872143</v>
       </c>
       <c r="N24">
-        <v>0.9543758853533632</v>
+        <v>1.026945862545465</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.946141068153317</v>
+        <v>1.022533608685352</v>
       </c>
       <c r="D25">
-        <v>0.9763465872116077</v>
+        <v>1.026392275118564</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.9160009312322023</v>
+        <v>1.020128452817484</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025207847915098</v>
+        <v>1.028687622087092</v>
       </c>
       <c r="J25">
-        <v>0.972627641824124</v>
+        <v>1.028207482838032</v>
       </c>
       <c r="K25">
-        <v>0.9893235363675067</v>
+        <v>1.029474666719832</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9300600509184684</v>
+        <v>1.023231061759744</v>
       </c>
       <c r="N25">
-        <v>0.9740088846374639</v>
+        <v>1.029667655400708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_142/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025178707422301</v>
+        <v>0.9631288577199257</v>
       </c>
       <c r="D2">
-        <v>1.028335994001733</v>
+        <v>0.9889650088659995</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.023673710081207</v>
+        <v>0.9379152084672299</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029360113836184</v>
+        <v>1.030920756977718</v>
       </c>
       <c r="J2">
-        <v>1.030349178630393</v>
+        <v>0.9864712261123383</v>
       </c>
       <c r="K2">
-        <v>1.031153107958656</v>
+        <v>1.000580249934072</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.026504455809386</v>
+        <v>0.9503130488876761</v>
       </c>
       <c r="N2">
-        <v>1.031812392646755</v>
+        <v>0.9878721284032489</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027084911950532</v>
+        <v>0.9745087215618585</v>
       </c>
       <c r="D3">
-        <v>1.029735023772635</v>
+        <v>0.9974264121016637</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.026231184010214</v>
+        <v>0.9525459711039251</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029839124794931</v>
+        <v>1.034703227210949</v>
       </c>
       <c r="J3">
-        <v>1.031889672209725</v>
+        <v>0.9957192790012159</v>
       </c>
       <c r="K3">
-        <v>1.032358457520224</v>
+        <v>1.008092328723007</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.028864096660109</v>
+        <v>0.9638243358767666</v>
       </c>
       <c r="N3">
-        <v>1.033355073903663</v>
+        <v>0.9971333145879951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028311923916783</v>
+        <v>0.9814994413680234</v>
       </c>
       <c r="D4">
-        <v>1.030634761780702</v>
+        <v>1.002626160926059</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.027878643086032</v>
+        <v>0.9615192074191459</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03014485212729</v>
+        <v>1.037005565772718</v>
       </c>
       <c r="J4">
-        <v>1.032879920949726</v>
+        <v>1.001388532210775</v>
       </c>
       <c r="K4">
-        <v>1.033132370767463</v>
+        <v>1.012692993499645</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.030383320860615</v>
+        <v>0.9721053744609964</v>
       </c>
       <c r="N4">
-        <v>1.034346728910458</v>
+        <v>1.002810618787384</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028826251928956</v>
+        <v>0.9843575216132886</v>
       </c>
       <c r="D5">
-        <v>1.031011710469309</v>
+        <v>1.00475220437727</v>
       </c>
       <c r="E5">
-        <v>0.9945786998344013</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.028569510991789</v>
+        <v>0.9651853130942928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030272378200705</v>
+        <v>1.037941652736234</v>
       </c>
       <c r="J5">
-        <v>1.033294679312714</v>
+        <v>1.003703475824107</v>
       </c>
       <c r="K5">
-        <v>1.033456301753261</v>
+        <v>1.01457044117195</v>
       </c>
       <c r="L5">
-        <v>0.9971179600051301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.031020222155952</v>
+        <v>0.9754872306751825</v>
       </c>
       <c r="N5">
-        <v>1.034762076277895</v>
+        <v>1.005128849886175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028912522354763</v>
+        <v>0.9848328871501139</v>
       </c>
       <c r="D6">
-        <v>1.031074926151731</v>
+        <v>1.005105818761346</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796335</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.028685411022077</v>
+        <v>0.9657949501184884</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030293731929852</v>
+        <v>1.038097037027117</v>
       </c>
       <c r="J6">
-        <v>1.033364229402389</v>
+        <v>1.004088335552165</v>
       </c>
       <c r="K6">
-        <v>1.033510608404331</v>
+        <v>1.014882496366536</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673452</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.031127057541534</v>
+        <v>0.9760495121961077</v>
       </c>
       <c r="N6">
-        <v>1.034831725136674</v>
+        <v>1.005514256159191</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028318802275327</v>
+        <v>0.9815379385841193</v>
       </c>
       <c r="D7">
-        <v>1.030639803670416</v>
+        <v>1.002654797495508</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978917</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.027887881207598</v>
+        <v>0.9615685971971767</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030146560059822</v>
+        <v>1.03701819528806</v>
       </c>
       <c r="J7">
-        <v>1.03288546899523</v>
+        <v>1.001419725020856</v>
       </c>
       <c r="K7">
-        <v>1.033136704708876</v>
+        <v>1.012718295972904</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459043</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.030391838104518</v>
+        <v>0.9721509406940508</v>
       </c>
       <c r="N7">
-        <v>1.034352284834823</v>
+        <v>1.002841855894834</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025824268609381</v>
+        <v>0.9670574638782879</v>
       </c>
       <c r="D8">
-        <v>1.028809960699544</v>
+        <v>0.9918855172833337</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.024539580656781</v>
+        <v>0.9429698912447194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029522878507822</v>
+        <v>1.032231046587964</v>
       </c>
       <c r="J8">
-        <v>1.030871168841028</v>
+        <v>0.9896664138523448</v>
       </c>
       <c r="K8">
-        <v>1.031561722531735</v>
+        <v>1.003176537984161</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591057</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.027303512180841</v>
+        <v>0.9549821056394855</v>
       </c>
       <c r="N8">
-        <v>1.032335124143358</v>
+        <v>0.9910718536763395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02137790619225</v>
+        <v>0.9382132543162141</v>
       </c>
       <c r="D9">
-        <v>1.025542198134939</v>
+        <v>0.9704652237566708</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.018580651290297</v>
+        <v>0.9057358587720182</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028391072200908</v>
+        <v>1.022519298280735</v>
       </c>
       <c r="J9">
-        <v>1.027270306464795</v>
+        <v>0.9661537871776498</v>
       </c>
       <c r="K9">
-        <v>1.028739272303612</v>
+        <v>0.9840563750989276</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.02180112033373</v>
+        <v>0.9205689677903766</v>
       </c>
       <c r="N9">
-        <v>1.028729148129526</v>
+        <v>0.9675258363748305</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018377570427305</v>
+        <v>0.915869235085219</v>
       </c>
       <c r="D10">
-        <v>1.02333311824805</v>
+        <v>0.9539226584198174</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547166</v>
       </c>
       <c r="F10">
-        <v>1.01456547641604</v>
+        <v>0.8766364599144856</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027613853700674</v>
+        <v>1.014882363610965</v>
       </c>
       <c r="J10">
-        <v>1.024833448134702</v>
+        <v>0.947869859786136</v>
       </c>
       <c r="K10">
-        <v>1.026824593080095</v>
+        <v>0.9691768604616663</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689268</v>
       </c>
       <c r="M10">
-        <v>1.01808944770566</v>
+        <v>0.8936582401255964</v>
       </c>
       <c r="N10">
-        <v>1.026288829181093</v>
+        <v>0.9492159437092247</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017069374125172</v>
+        <v>0.9051608161916757</v>
       </c>
       <c r="D11">
-        <v>1.022368988112203</v>
+        <v>0.9460156506429362</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016255</v>
       </c>
       <c r="F11">
-        <v>1.012816085277426</v>
+        <v>0.8625844503741706</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02727178742885</v>
+        <v>1.011197867246445</v>
       </c>
       <c r="J11">
-        <v>1.023769267090739</v>
+        <v>0.9390903177938391</v>
       </c>
       <c r="K11">
-        <v>1.025987370742261</v>
+        <v>0.9620328715341879</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.949155612541657</v>
       </c>
       <c r="M11">
-        <v>1.01647131839756</v>
+        <v>0.8806641798763127</v>
       </c>
       <c r="N11">
-        <v>1.025223136877984</v>
+        <v>0.9404239337602717</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016582055176483</v>
+        <v>0.9009910470031682</v>
       </c>
       <c r="D12">
-        <v>1.022009699670706</v>
+        <v>0.9429409251681201</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.012164602482137</v>
+        <v>0.8570910031195611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027143886159686</v>
+        <v>1.009759787012907</v>
       </c>
       <c r="J12">
-        <v>1.023372596055166</v>
+        <v>0.9356690392819467</v>
       </c>
       <c r="K12">
-        <v>1.025675137305264</v>
+        <v>0.9592494931926863</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.015868572459172</v>
+        <v>0.875585121595268</v>
       </c>
       <c r="N12">
-        <v>1.024825902524041</v>
+        <v>0.9369977966404659</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01668665059078</v>
+        <v>0.9018949234588574</v>
       </c>
       <c r="D13">
-        <v>1.022086821554819</v>
+        <v>0.9436072218444426</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.012304424789296</v>
+        <v>0.858282904814999</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027171359749699</v>
+        <v>1.010071663560529</v>
       </c>
       <c r="J13">
-        <v>1.023457746645851</v>
+        <v>0.9364107843326387</v>
       </c>
       <c r="K13">
-        <v>1.025742169519102</v>
+        <v>0.9598529065510284</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>1.015997941369953</v>
+        <v>0.8766870652339976</v>
       </c>
       <c r="N13">
-        <v>1.024911174038332</v>
+        <v>0.937740595054209</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017029120911879</v>
+        <v>0.904820326785604</v>
       </c>
       <c r="D14">
-        <v>1.0223393132009</v>
+        <v>0.9457644876176746</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.012762268146751</v>
+        <v>0.8621363509119424</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027261232332471</v>
+        <v>1.011080503982913</v>
       </c>
       <c r="J14">
-        <v>1.023736506628147</v>
+        <v>0.9388110002851737</v>
       </c>
       <c r="K14">
-        <v>1.025961587121943</v>
+        <v>0.9618056191692155</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.01642153024829</v>
+        <v>0.8802498614620274</v>
       </c>
       <c r="N14">
-        <v>1.025190329891778</v>
+        <v>0.9401442195887053</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017239941913978</v>
+        <v>0.9065959547758985</v>
       </c>
       <c r="D15">
-        <v>1.022494726068806</v>
+        <v>0.9470744602509164</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717476</v>
       </c>
       <c r="F15">
-        <v>1.013044135999735</v>
+        <v>0.8644722462656922</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02731649376308</v>
+        <v>1.011692411860371</v>
       </c>
       <c r="J15">
-        <v>1.023908075062386</v>
+        <v>0.940267516447684</v>
       </c>
       <c r="K15">
-        <v>1.026096610864291</v>
+        <v>0.9629906635528364</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767194</v>
       </c>
       <c r="M15">
-        <v>1.016682290302922</v>
+        <v>0.882409696162496</v>
       </c>
       <c r="N15">
-        <v>1.025362141972873</v>
+        <v>0.9416028041712314</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018464197455222</v>
+        <v>0.9165552915759821</v>
       </c>
       <c r="D16">
-        <v>1.023396942212273</v>
+        <v>0.9544297399142903</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.014681345288508</v>
+        <v>0.8775341656472466</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027636438036942</v>
+        <v>1.015117948321244</v>
       </c>
       <c r="J16">
-        <v>1.024903881718881</v>
+        <v>0.9484319940458535</v>
       </c>
       <c r="K16">
-        <v>1.026879982707317</v>
+        <v>0.969634322274634</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.018196602193735</v>
+        <v>0.894488427185264</v>
       </c>
       <c r="N16">
-        <v>1.026359362789041</v>
+        <v>0.949778876264069</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019229694893027</v>
+        <v>0.9225036970612234</v>
       </c>
       <c r="D17">
-        <v>1.023960828405204</v>
+        <v>0.9588287445699866</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.015705392043278</v>
+        <v>0.8853056365718837</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027835642559039</v>
+        <v>1.017157924069181</v>
       </c>
       <c r="J17">
-        <v>1.02552609025161</v>
+        <v>0.953304090290569</v>
       </c>
       <c r="K17">
-        <v>1.027369169468966</v>
+        <v>0.9735993335507146</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.019143519449802</v>
+        <v>0.9016755483234412</v>
       </c>
       <c r="N17">
-        <v>1.026982454929254</v>
+        <v>0.9546578914442889</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019675327950894</v>
+        <v>0.9258766468403203</v>
       </c>
       <c r="D18">
-        <v>1.024289003870177</v>
+        <v>0.9613249633794835</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.939383286721568</v>
       </c>
       <c r="F18">
-        <v>1.016301663802155</v>
+        <v>0.8897031554351216</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027951302908891</v>
+        <v>1.018312419910952</v>
       </c>
       <c r="J18">
-        <v>1.02588814740184</v>
+        <v>0.95606520671363</v>
       </c>
       <c r="K18">
-        <v>1.02765371896383</v>
+        <v>0.9758464304309968</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.019694787495635</v>
+        <v>0.9057424562005852</v>
       </c>
       <c r="N18">
-        <v>1.027345026242166</v>
+        <v>0.9574229289693752</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019827131161933</v>
+        <v>0.9270112587004008</v>
       </c>
       <c r="D19">
-        <v>1.024400780278473</v>
+        <v>0.9621649412683828</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814680088</v>
       </c>
       <c r="F19">
-        <v>1.016504802883105</v>
+        <v>0.891180993820967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027990650189327</v>
+        <v>1.018700387963674</v>
       </c>
       <c r="J19">
-        <v>1.026011453564924</v>
+        <v>0.9569937480241815</v>
       </c>
       <c r="K19">
-        <v>1.027750610663994</v>
+        <v>0.9766021085224548</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493812708</v>
       </c>
       <c r="M19">
-        <v>1.019882578747501</v>
+        <v>0.9071091821268157</v>
       </c>
       <c r="N19">
-        <v>1.027468507514145</v>
+        <v>0.9583527889150929</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019147654396246</v>
+        <v>0.9218757121027716</v>
       </c>
       <c r="D20">
-        <v>1.023900404443342</v>
+        <v>0.9583641351429815</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.015595629245854</v>
+        <v>0.8844861787956597</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027814324944587</v>
+        <v>1.016942792115889</v>
       </c>
       <c r="J20">
-        <v>1.025459423040053</v>
+        <v>0.9527898935221448</v>
       </c>
       <c r="K20">
-        <v>1.027316765733882</v>
+        <v>0.97318086264408</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.019042033480619</v>
+        <v>0.9009176985334869</v>
       </c>
       <c r="N20">
-        <v>1.02691569304261</v>
+        <v>0.9541429644574746</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016928310814271</v>
+        <v>0.9039645414723908</v>
       </c>
       <c r="D21">
-        <v>1.022264993164338</v>
+        <v>0.9451332860354431</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148886</v>
       </c>
       <c r="F21">
-        <v>1.012627491576915</v>
+        <v>0.8610097286370789</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027234790458929</v>
+        <v>1.010785470874243</v>
       </c>
       <c r="J21">
-        <v>1.023654457319424</v>
+        <v>0.9381089225549447</v>
       </c>
       <c r="K21">
-        <v>1.025897008879962</v>
+        <v>0.9612344200017969</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981058</v>
       </c>
       <c r="M21">
-        <v>1.016296841278972</v>
+        <v>0.8792081876484134</v>
       </c>
       <c r="N21">
-        <v>1.025108164063625</v>
+        <v>0.9394411448275701</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015524820880342</v>
+        <v>0.8915607717283278</v>
       </c>
       <c r="D22">
-        <v>1.021229975549505</v>
+        <v>0.9359964981711706</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.010751549384831</v>
+        <v>0.8446176061835964</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026865532584655</v>
+        <v>1.006501578810356</v>
       </c>
       <c r="J22">
-        <v>1.022511562788016</v>
+        <v>0.9279265584946312</v>
       </c>
       <c r="K22">
-        <v>1.02499709529474</v>
+        <v>0.9529522380135043</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.014560962161011</v>
+        <v>0.8640551265717281</v>
       </c>
       <c r="N22">
-        <v>1.023963646490891</v>
+        <v>0.9292443206423577</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016269618770326</v>
+        <v>0.8982610164439783</v>
       </c>
       <c r="D23">
-        <v>1.021779309208606</v>
+        <v>0.9409291845853553</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.011746966749919</v>
+        <v>0.8534872569137143</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027061750118132</v>
+        <v>1.008817342916108</v>
       </c>
       <c r="J23">
-        <v>1.023118206476667</v>
+        <v>0.9334283148848725</v>
       </c>
       <c r="K23">
-        <v>1.025474853396</v>
+        <v>0.95742677352096</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.015482138693955</v>
+        <v>0.8722535490510566</v>
       </c>
       <c r="N23">
-        <v>1.024571151683162</v>
+        <v>0.934753890157733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019184727647765</v>
+        <v>0.9221597675476246</v>
       </c>
       <c r="D24">
-        <v>1.023927709684762</v>
+        <v>0.9585742855328599</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>1.015645229532068</v>
+        <v>0.8848568711309382</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027823959101168</v>
+        <v>1.017040109438836</v>
       </c>
       <c r="J24">
-        <v>1.025489549759512</v>
+        <v>0.9530224841127137</v>
       </c>
       <c r="K24">
-        <v>1.027340447150182</v>
+        <v>0.9733701527079496</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>1.019087893872143</v>
+        <v>0.9012605215975121</v>
       </c>
       <c r="N24">
-        <v>1.026945862545465</v>
+        <v>0.9543758853533607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022533608685352</v>
+        <v>0.9461410681533144</v>
       </c>
       <c r="D25">
-        <v>1.026392275118564</v>
+        <v>0.9763465872116053</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717737</v>
       </c>
       <c r="F25">
-        <v>1.020128452817484</v>
+        <v>0.9160009312321993</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028687622087092</v>
+        <v>1.025207847915097</v>
       </c>
       <c r="J25">
-        <v>1.028207482838032</v>
+        <v>0.9726276418241216</v>
       </c>
       <c r="K25">
-        <v>1.029474666719832</v>
+        <v>0.9893235363675044</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005615</v>
       </c>
       <c r="M25">
-        <v>1.023231061759744</v>
+        <v>0.9300600509184656</v>
       </c>
       <c r="N25">
-        <v>1.029667655400708</v>
+        <v>0.9740088846374617</v>
       </c>
     </row>
   </sheetData>
